--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2359.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2359.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.8487274268934533</v>
+        <v>1.010202050209045</v>
       </c>
       <c r="B1">
-        <v>1.559573924358935</v>
+        <v>2.12084698677063</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>6.246166706085205</v>
       </c>
       <c r="D1">
-        <v>2.1745747386002</v>
+        <v>1.451396703720093</v>
       </c>
       <c r="E1">
-        <v>1.227360076024754</v>
+        <v>1.338977336883545</v>
       </c>
     </row>
   </sheetData>
